--- a/teaching/traditional_assets/database/data/philippines/philippines_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/philippines/philippines_reinsurance.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.245</v>
+        <v>0.165</v>
       </c>
       <c r="G2">
-        <v>0.04841269841269841</v>
+        <v>0.07571644042232277</v>
       </c>
       <c r="H2">
-        <v>0.04841269841269841</v>
+        <v>0.07571644042232277</v>
       </c>
       <c r="I2">
-        <v>0.1138095238095238</v>
+        <v>0.02449078417551149</v>
       </c>
       <c r="J2">
-        <v>0.08805167010624475</v>
+        <v>0.01224539208775574</v>
       </c>
       <c r="K2">
-        <v>4.81</v>
+        <v>-0.836</v>
       </c>
       <c r="L2">
-        <v>0.07634920634920635</v>
+        <v>-0.01260935143288085</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,61 +627,61 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>25.3</v>
+        <v>18</v>
       </c>
       <c r="V2">
-        <v>0.7291066282420748</v>
+        <v>0.6081081081081081</v>
       </c>
       <c r="W2">
-        <v>0.05503432494279176</v>
+        <v>-0.008148148148148147</v>
       </c>
       <c r="X2">
-        <v>0.08430499808043551</v>
+        <v>0.09159116291327829</v>
       </c>
       <c r="Y2">
-        <v>-0.02927067313764375</v>
+        <v>-0.09973931106142644</v>
       </c>
       <c r="Z2">
-        <v>1.111111111111111</v>
+        <v>0.8575164056366941</v>
       </c>
       <c r="AA2">
-        <v>0.09783518900693859</v>
+        <v>0.01050062460870432</v>
       </c>
       <c r="AB2">
-        <v>0.08430499808043551</v>
+        <v>0.09147391432819912</v>
       </c>
       <c r="AC2">
-        <v>0.01353019092650308</v>
+        <v>-0.0809732897194948</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.01630504581794165</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.05630504581794165</v>
       </c>
       <c r="AG2">
-        <v>-25.3</v>
+        <v>-17.94369495418206</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.001898586008302529</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.0004872520438899182</v>
       </c>
       <c r="AJ2">
-        <v>-2.691489361702127</v>
+        <v>-1.539398195538809</v>
       </c>
       <c r="AK2">
-        <v>-0.3272962483829237</v>
+        <v>-0.1839316786931884</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.02371072910491998</v>
       </c>
       <c r="AP2">
-        <v>-3.4375</v>
+        <v>-10.63645225499826</v>
       </c>
     </row>
     <row r="3">
@@ -713,25 +713,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.245</v>
+        <v>0.165</v>
       </c>
       <c r="G3">
-        <v>0.04841269841269841</v>
+        <v>0.07571644042232277</v>
       </c>
       <c r="H3">
-        <v>0.04841269841269841</v>
+        <v>0.07571644042232277</v>
       </c>
       <c r="I3">
-        <v>0.1138095238095238</v>
+        <v>0.02449078417551149</v>
       </c>
       <c r="J3">
-        <v>0.08805167010624475</v>
+        <v>0.01224539208775574</v>
       </c>
       <c r="K3">
-        <v>4.81</v>
+        <v>-0.836</v>
       </c>
       <c r="L3">
-        <v>0.07634920634920635</v>
+        <v>-0.01260935143288085</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,7 +740,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -749,61 +749,61 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>25.3</v>
+        <v>18</v>
       </c>
       <c r="V3">
-        <v>0.7291066282420748</v>
+        <v>0.6081081081081081</v>
       </c>
       <c r="W3">
-        <v>0.05503432494279176</v>
+        <v>-0.008148148148148147</v>
       </c>
       <c r="X3">
-        <v>0.08430499808043551</v>
+        <v>0.09159116291327829</v>
       </c>
       <c r="Y3">
-        <v>-0.02927067313764375</v>
+        <v>-0.09973931106142644</v>
       </c>
       <c r="Z3">
-        <v>1.111111111111111</v>
+        <v>0.8575164056366941</v>
       </c>
       <c r="AA3">
-        <v>0.09783518900693859</v>
+        <v>0.01050062460870432</v>
       </c>
       <c r="AB3">
-        <v>0.08430499808043551</v>
+        <v>0.09147391432819912</v>
       </c>
       <c r="AC3">
-        <v>0.01353019092650308</v>
+        <v>-0.0809732897194948</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.01630504581794165</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.05630504581794165</v>
       </c>
       <c r="AG3">
-        <v>-25.3</v>
+        <v>-17.94369495418206</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.001898586008302529</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.0004872520438899182</v>
       </c>
       <c r="AJ3">
-        <v>-2.691489361702127</v>
+        <v>-1.539398195538809</v>
       </c>
       <c r="AK3">
-        <v>-0.3272962483829237</v>
+        <v>-0.1839316786931884</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -812,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.02371072910491998</v>
       </c>
       <c r="AP3">
-        <v>-3.4375</v>
+        <v>-10.63645225499826</v>
       </c>
     </row>
   </sheetData>
